--- a/IOT/RFID数据库表设计.xlsx
+++ b/IOT/RFID数据库表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21037" windowHeight="9735"/>
+    <workbookView windowWidth="21600" windowHeight="9810"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>姓名学号表</t>
   </si>
@@ -60,12 +60,18 @@
     <t>余额交易记录表</t>
   </si>
   <si>
+    <t>交易相片表</t>
+  </si>
+  <si>
     <t>CARDID</t>
   </si>
   <si>
     <t>BALANCELOG</t>
   </si>
   <si>
+    <t>BALOGCAM</t>
+  </si>
+  <si>
     <t>cardid</t>
   </si>
   <si>
@@ -73,6 +79,12 @@
   </si>
   <si>
     <t>money</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>locate</t>
   </si>
   <si>
     <t>1·*</t>
@@ -86,10 +98,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -101,12 +113,49 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -115,7 +164,85 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,121 +255,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -259,13 +271,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,169 +433,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,39 +480,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -516,6 +495,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -527,6 +524,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,11 +563,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,10 +585,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,156 +597,162 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1085,10 +1103,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:J14"/>
+  <dimension ref="A2:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1102,12 +1120,12 @@
         <v>1</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
@@ -1118,86 +1136,105 @@
         <v>4</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="K6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="7"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="D7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="K7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="7"/>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="1:12">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="F8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="7:8">
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
@@ -1240,7 +1277,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>2</v>
@@ -1256,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>13</v>
@@ -1264,7 +1301,7 @@
       <c r="F14" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="21">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="G2:J2"/>
@@ -1272,9 +1309,11 @@
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="K7:L7"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="E11:F11"/>
